--- a/misc/boat_logs/NewAirboatMaintenanceLog.xlsx
+++ b/misc/boat_logs/NewAirboatMaintenanceLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\boat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\misc\boat_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -182,13 +182,16 @@
     <t>6/62019</t>
   </si>
   <si>
-    <t>estimated total hours by dividing 14.9 by 17 trips since new odometer to get hours per trip (0.9).  Multiply this by 53.  Therefore true motor hours equals current reading plus 30</t>
-  </si>
-  <si>
     <t>Actual Hours</t>
   </si>
   <si>
     <t>Trailer breaks/bearings checked by motor pool.  All bearings repacked.</t>
+  </si>
+  <si>
+    <t>estimated total hours by dividing 14.9 by 17 trips since new odometer installed to get avg hours per trip (0.9).  Multiply this by 52.  Therefore true motor hours equals current reading plus 30</t>
+  </si>
+  <si>
+    <t>trimmed off bad winch strap, installed strap protector</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI76"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Z70" sqref="Z70"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB87" sqref="AB87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -1361,7 +1364,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43566</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43567</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43572</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43573</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43592</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>14.9</v>
       </c>
@@ -1412,10 +1415,10 @@
         <v>43608</v>
       </c>
       <c r="Z70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43613</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43614</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>17</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43616</v>
       </c>
@@ -1450,18 +1453,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G75" s="2" t="s">
         <v>51</v>
       </c>
       <c r="Z75" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AI76">
-        <f>52*0.9</f>
-        <v>46.800000000000004</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z76" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
